--- a/Jon/DistanciasCuidades.xlsx
+++ b/Jon/DistanciasCuidades.xlsx
@@ -655,7 +655,7 @@
         <v>311.953</v>
       </c>
       <c r="AO2" t="n">
-        <v>821.159</v>
+        <v>0.0</v>
       </c>
       <c r="AP2" t="n">
         <v>180.485</v>
@@ -667,7 +667,7 @@
         <v>431.383</v>
       </c>
       <c r="AS2" t="n">
-        <v>427.822</v>
+        <v>0.0</v>
       </c>
       <c r="AT2" t="n">
         <v>569.323</v>
@@ -699,7 +699,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>600.884</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -780,7 +780,7 @@
         <v>759.018</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.098</v>
+        <v>253.364</v>
       </c>
       <c r="AD3" t="n">
         <v>502.123</v>
@@ -816,7 +816,7 @@
         <v>350.664</v>
       </c>
       <c r="AO3" t="n">
-        <v>501.349</v>
+        <v>0.0</v>
       </c>
       <c r="AP3" t="n">
         <v>449.085</v>
@@ -828,7 +828,7 @@
         <v>226.379</v>
       </c>
       <c r="AS3" t="n">
-        <v>246.729</v>
+        <v>0.0</v>
       </c>
       <c r="AT3" t="n">
         <v>187.209</v>
@@ -860,10 +860,10 @@
         <v>54</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>757.27</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>167.853</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -941,7 +941,7 @@
         <v>924.845</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.925</v>
+        <v>419.191</v>
       </c>
       <c r="AD4" t="n">
         <v>471.72</v>
@@ -977,7 +977,7 @@
         <v>516.491</v>
       </c>
       <c r="AO4" t="n">
-        <v>595.412</v>
+        <v>0.0</v>
       </c>
       <c r="AP4" t="n">
         <v>554.238</v>
@@ -989,7 +989,7 @@
         <v>318.979</v>
       </c>
       <c r="AS4" t="n">
-        <v>412.556</v>
+        <v>0.0</v>
       </c>
       <c r="AT4" t="n">
         <v>165.445</v>
@@ -1021,13 +1021,13 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>902.245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>353.505</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>290.791</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -1138,7 +1138,7 @@
         <v>640.413</v>
       </c>
       <c r="AO5" t="n">
-        <v>412.635</v>
+        <v>0.0</v>
       </c>
       <c r="AP5" t="n">
         <v>768.785</v>
@@ -1150,7 +1150,7 @@
         <v>581.883</v>
       </c>
       <c r="AS5" t="n">
-        <v>498.687</v>
+        <v>0.0</v>
       </c>
       <c r="AT5" t="n">
         <v>428.349</v>
@@ -1182,16 +1182,16 @@
         <v>56</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>375.093</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>367.987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>533.814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>657.736</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -1299,7 +1299,7 @@
         <v>65.893</v>
       </c>
       <c r="AO6" t="n">
-        <v>498.077</v>
+        <v>0.0</v>
       </c>
       <c r="AP6" t="n">
         <v>253.268</v>
@@ -1311,7 +1311,7 @@
         <v>411.871</v>
       </c>
       <c r="AS6" t="n">
-        <v>131.19</v>
+        <v>0.0</v>
       </c>
       <c r="AT6" t="n">
         <v>465.307</v>
@@ -1343,19 +1343,19 @@
         <v>57</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>650.529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>503.22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>687.901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>621.935</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>327.447</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1460,7 +1460,7 @@
         <v>390.449</v>
       </c>
       <c r="AO7" t="n">
-        <v>210.497</v>
+        <v>0.0</v>
       </c>
       <c r="AP7" t="n">
         <v>628.031</v>
@@ -1472,7 +1472,7 @@
         <v>702.363</v>
       </c>
       <c r="AS7" t="n">
-        <v>363.027</v>
+        <v>0.0</v>
       </c>
       <c r="AT7" t="n">
         <v>656.737</v>
@@ -1504,22 +1504,22 @@
         <v>58</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>931.153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>466.98</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>395.832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>686.662</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>803.708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>995.138</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -1585,7 +1585,7 @@
         <v>1197.705</v>
       </c>
       <c r="AC8" t="n">
-        <v>697.414</v>
+        <v>695.457</v>
       </c>
       <c r="AD8" t="n">
         <v>868.884</v>
@@ -1621,7 +1621,7 @@
         <v>789.351</v>
       </c>
       <c r="AO8" t="n">
-        <v>984.606</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
         <v>742.917</v>
@@ -1633,7 +1633,7 @@
         <v>507.657</v>
       </c>
       <c r="AS8" t="n">
-        <v>709.431</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
         <v>354.144</v>
@@ -1665,25 +1665,25 @@
         <v>59</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>570.251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>547.712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>525.948</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>788.852</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>733.33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1023.823</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>254.63</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -1746,7 +1746,7 @@
         <v>993.713</v>
       </c>
       <c r="AC9" t="n">
-        <v>627.787</v>
+        <v>622.23</v>
       </c>
       <c r="AD9" t="n">
         <v>995.095</v>
@@ -1782,7 +1782,7 @@
         <v>712.533</v>
       </c>
       <c r="AO9" t="n">
-        <v>994.322</v>
+        <v>0.0</v>
       </c>
       <c r="AP9" t="n">
         <v>465.284</v>
@@ -1794,7 +1794,7 @@
         <v>426.684</v>
       </c>
       <c r="AS9" t="n">
-        <v>690.147</v>
+        <v>0.0</v>
       </c>
       <c r="AT9" t="n">
         <v>349.309</v>
@@ -1826,28 +1826,28 @@
         <v>60</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0</v>
+        <v>118.419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>485.995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>651.822</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>789.048</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>262.823</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>538.257</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>928.089</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>604.768</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -1943,7 +1943,7 @@
         <v>199.445</v>
       </c>
       <c r="AO10" t="n">
-        <v>708.526</v>
+        <v>0.0</v>
       </c>
       <c r="AP10" t="n">
         <v>141.995</v>
@@ -1955,7 +1955,7 @@
         <v>378.006</v>
       </c>
       <c r="AS10" t="n">
-        <v>315.314</v>
+        <v>0.0</v>
       </c>
       <c r="AT10" t="n">
         <v>588.435</v>
@@ -1987,31 +1987,31 @@
         <v>61</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>561.217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>506.443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>672.27</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>675.587</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>238.135</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>92.611</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>969.145</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>917.94</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>448.585</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
@@ -2104,7 +2104,7 @@
         <v>299.922</v>
       </c>
       <c r="AO11" t="n">
-        <v>264.841</v>
+        <v>0.0</v>
       </c>
       <c r="AP11" t="n">
         <v>525.081</v>
@@ -2116,7 +2116,7 @@
         <v>599.413</v>
       </c>
       <c r="AS11" t="n">
-        <v>260.077</v>
+        <v>0.0</v>
       </c>
       <c r="AT11" t="n">
         <v>629.183</v>
@@ -2148,34 +2148,34 @@
         <v>62</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>939.063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>622.099</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>640.166</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>436.901</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>615.981</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>328.401</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>1037.33</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1115.071</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>826.431</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>382.746</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -2265,7 +2265,7 @@
         <v>678.261</v>
       </c>
       <c r="AO12" t="n">
-        <v>121.444</v>
+        <v>0.0</v>
       </c>
       <c r="AP12" t="n">
         <v>876.195</v>
@@ -2277,7 +2277,7 @@
         <v>782.826</v>
       </c>
       <c r="AS12" t="n">
-        <v>611.191</v>
+        <v>0.0</v>
       </c>
       <c r="AT12" t="n">
         <v>773.526</v>
@@ -2309,37 +2309,37 @@
         <v>63</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>569.738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>269.573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>247.809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>510.713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>530.396</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>721.826</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>436.488</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>278.457</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>516.362</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>694.272</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>838.615</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
@@ -2390,7 +2390,7 @@
         <v>921.232</v>
       </c>
       <c r="AC13" t="n">
-        <v>420.941</v>
+        <v>418.984</v>
       </c>
       <c r="AD13" t="n">
         <v>718.969</v>
@@ -2426,7 +2426,7 @@
         <v>512.878</v>
       </c>
       <c r="AO13" t="n">
-        <v>718.196</v>
+        <v>0.0</v>
       </c>
       <c r="AP13" t="n">
         <v>379.421</v>
@@ -2438,7 +2438,7 @@
         <v>144.161</v>
       </c>
       <c r="AS13" t="n">
-        <v>432.958</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
         <v>73.183</v>
@@ -2470,40 +2470,40 @@
         <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>557.463</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>200.088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>384.769</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>391.82</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>250.108</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>305.581</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>683.344</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>693.061</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>444.955</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>270.521</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>444.946</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0</v>
+        <v>416.935</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -2587,7 +2587,7 @@
         <v>294.92</v>
       </c>
       <c r="AO14" t="n">
-        <v>325.782</v>
+        <v>0.0</v>
       </c>
       <c r="AP14" t="n">
         <v>423.292</v>
@@ -2599,7 +2599,7 @@
         <v>360.861</v>
       </c>
       <c r="AS14" t="n">
-        <v>118.359</v>
+        <v>0.0</v>
       </c>
       <c r="AT14" t="n">
         <v>351.562</v>
@@ -2631,43 +2631,43 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0</v>
+        <v>746.001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>367.748</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>552.429</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>353.203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>501.099</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>265.259</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>851.004</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>860.721</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>633.493</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>319.882</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>260.266</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>584.595</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>192.18</v>
       </c>
       <c r="O15" t="n">
         <v>0.0</v>
@@ -2748,7 +2748,7 @@
         <v>485.209</v>
       </c>
       <c r="AO15" t="n">
-        <v>144.87</v>
+        <v>0.0</v>
       </c>
       <c r="AP15" t="n">
         <v>613.581</v>
@@ -2760,7 +2760,7 @@
         <v>529.872</v>
       </c>
       <c r="AS15" t="n">
-        <v>343.483</v>
+        <v>0.0</v>
       </c>
       <c r="AT15" t="n">
         <v>520.572</v>
@@ -2792,46 +2792,46 @@
         <v>66</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0</v>
+        <v>599.736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>851.391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1017.218</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>1141.14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>519.073</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>655.089</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1290.078</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>1086.086</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>487.104</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
+        <v>662.438</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>1040.777</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0</v>
+        <v>1013.605</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>795.647</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>985.936</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -2909,7 +2909,7 @@
         <v>526.822</v>
       </c>
       <c r="AO16" t="n">
-        <v>922.055</v>
+        <v>0.0</v>
       </c>
       <c r="AP16" t="n">
         <v>618.483</v>
@@ -2921,7 +2921,7 @@
         <v>894.888</v>
       </c>
       <c r="AS16" t="n">
-        <v>657.61</v>
+        <v>0.0</v>
       </c>
       <c r="AT16" t="n">
         <v>948.324</v>
@@ -2953,49 +2953,49 @@
         <v>67</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0</v>
+        <v>512.282</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>161.58</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>327.407</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>515.472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>276.646</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>543.472</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>540.696</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>540.349</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>399.774</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0</v>
+        <v>440.522</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>684.233</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>264.223</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>266.916</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0</v>
+        <v>431.279</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0</v>
+        <v>759.664</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
@@ -3034,7 +3034,7 @@
         <v>668.194</v>
       </c>
       <c r="AC17" t="n">
-        <v>167.903</v>
+        <v>165.946</v>
       </c>
       <c r="AD17" t="n">
         <v>565.076</v>
@@ -3070,7 +3070,7 @@
         <v>259.84</v>
       </c>
       <c r="AO17" t="n">
-        <v>564.302</v>
+        <v>0.0</v>
       </c>
       <c r="AP17" t="n">
         <v>270.563</v>
@@ -3082,7 +3082,7 @@
         <v>148.444</v>
       </c>
       <c r="AS17" t="n">
-        <v>179.92</v>
+        <v>0.0</v>
       </c>
       <c r="AT17" t="n">
         <v>200.819</v>
@@ -3114,52 +3114,52 @@
         <v>68</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>646.037</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>638.44</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>616.676</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>879.58</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>809.116</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1099.608</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>357.013</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>103.186</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>685.133</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>996.658</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>1207.481</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>372.063</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>785.516</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>954.527</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>1165.797</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0</v>
+        <v>634.774</v>
       </c>
       <c r="R18" t="n">
         <v>0.0</v>
@@ -3195,7 +3195,7 @@
         <v>1072.497</v>
       </c>
       <c r="AC18" t="n">
-        <v>706.571</v>
+        <v>701.014</v>
       </c>
       <c r="AD18" t="n">
         <v>1088.169</v>
@@ -3231,7 +3231,7 @@
         <v>791.318</v>
       </c>
       <c r="AO18" t="n">
-        <v>1087.396</v>
+        <v>0.0</v>
       </c>
       <c r="AP18" t="n">
         <v>544.068</v>
@@ -3243,7 +3243,7 @@
         <v>519.757</v>
       </c>
       <c r="AS18" t="n">
-        <v>768.931</v>
+        <v>0.0</v>
       </c>
       <c r="AT18" t="n">
         <v>442.383</v>
@@ -3275,55 +3275,55 @@
         <v>69</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0</v>
+        <v>771.257</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>393.005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>350.512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>167.625</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>526.356</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>464.015</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>747.676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>845.42</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>658.75</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>518.36</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>292.785</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>569.294</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>258.764</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0</v>
+        <v>207.836</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>1009.373</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0</v>
+        <v>455.958</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0</v>
+        <v>938.493</v>
       </c>
       <c r="S19" t="n">
         <v>0.0</v>
@@ -3392,7 +3392,7 @@
         <v>507.907</v>
       </c>
       <c r="AO19" t="n">
-        <v>248.125</v>
+        <v>0.0</v>
       </c>
       <c r="AP19" t="n">
         <v>636.278</v>
@@ -3404,7 +3404,7 @@
         <v>552.569</v>
       </c>
       <c r="AS19" t="n">
-        <v>366.18</v>
+        <v>0.0</v>
       </c>
       <c r="AT19" t="n">
         <v>488.051</v>
@@ -3436,58 +3436,58 @@
         <v>70</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0</v>
+        <v>359.55</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>280.817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>446.644</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>600.517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>169.498</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>459.763</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>673.305</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>563.331</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>247.042</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>356.813</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>707.927</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0</v>
+        <v>384.059</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0</v>
+        <v>255.024</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>445.313</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>652.515</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0</v>
+        <v>134.968</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0</v>
+        <v>642.115</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0</v>
+        <v>468.01</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -3517,7 +3517,7 @@
         <v>559.165</v>
       </c>
       <c r="AC20" t="n">
-        <v>67.711</v>
+        <v>62.154</v>
       </c>
       <c r="AD20" t="n">
         <v>580.266</v>
@@ -3553,7 +3553,7 @@
         <v>150.811</v>
       </c>
       <c r="AO20" t="n">
-        <v>591.392</v>
+        <v>0.0</v>
       </c>
       <c r="AP20" t="n">
         <v>171.337</v>
@@ -3565,7 +3565,7 @@
         <v>245.669</v>
       </c>
       <c r="AS20" t="n">
-        <v>130.071</v>
+        <v>0.0</v>
       </c>
       <c r="AT20" t="n">
         <v>332.182</v>
@@ -3597,61 +3597,61 @@
         <v>71</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0</v>
+        <v>100.354</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>693.111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>747.519</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>996.163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>469.732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>745.167</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>936.197</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>569.261</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>213.436</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0</v>
+        <v>654.639</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>1032.979</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>572.701</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>650.67</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>840.959</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>638.936</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0</v>
+        <v>518.205</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0</v>
+        <v>638.676</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>863.657</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0</v>
+        <v>418.979</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -3714,7 +3714,7 @@
         <v>407.366</v>
       </c>
       <c r="AO21" t="n">
-        <v>916.572</v>
+        <v>0.0</v>
       </c>
       <c r="AP21" t="n">
         <v>263.08</v>
@@ -3726,7 +3726,7 @@
         <v>432.819</v>
       </c>
       <c r="AS21" t="n">
-        <v>523.235</v>
+        <v>0.0</v>
       </c>
       <c r="AT21" t="n">
         <v>570.76</v>
@@ -3758,64 +3758,64 @@
         <v>72</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0</v>
+        <v>902.802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>594.979</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>691.608</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0</v>
+        <v>508.831</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>579.72</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
+        <v>292.14</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>1078.235</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>1087.952</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>790.169</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0</v>
+        <v>346.484</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0</v>
+        <v>210.101</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0</v>
+        <v>811.826</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0</v>
+        <v>419.412</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0</v>
+        <v>238.5</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0</v>
+        <v>946.878</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0</v>
+        <v>657.932</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0</v>
+        <v>1181.025</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0</v>
+        <v>344.322</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>673.035</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0</v>
+        <v>998.215</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
@@ -3875,7 +3875,7 @@
         <v>643.399</v>
       </c>
       <c r="AO22" t="n">
-        <v>93.99</v>
+        <v>0.0</v>
       </c>
       <c r="AP22" t="n">
         <v>841.333</v>
@@ -3887,7 +3887,7 @@
         <v>758.004</v>
       </c>
       <c r="AS22" t="n">
-        <v>576.329</v>
+        <v>0.0</v>
       </c>
       <c r="AT22" t="n">
         <v>748.704</v>
@@ -3919,67 +3919,67 @@
         <v>73</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0</v>
+        <v>330.199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>474.989</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>561.159</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>824.063</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>493.278</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>783.771</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>522.049</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>269.851</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>369.296</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0</v>
+        <v>680.821</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>1031.935</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>386.341</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0</v>
+        <v>579.032</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>769.321</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>849.959</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0</v>
+        <v>367.442</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0</v>
+        <v>340.123</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>792.018</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>327.076</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>249.683</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0</v>
+        <v>997.073</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
@@ -4000,7 +4000,7 @@
         <v>756.806</v>
       </c>
       <c r="AC23" t="n">
-        <v>390.881</v>
+        <v>385.324</v>
       </c>
       <c r="AD23" t="n">
         <v>903.435</v>
@@ -4036,7 +4036,7 @@
         <v>475.627</v>
       </c>
       <c r="AO23" t="n">
-        <v>914.561</v>
+        <v>0.0</v>
       </c>
       <c r="AP23" t="n">
         <v>228.377</v>
@@ -4048,7 +4048,7 @@
         <v>248.958</v>
       </c>
       <c r="AS23" t="n">
-        <v>453.24</v>
+        <v>0.0</v>
       </c>
       <c r="AT23" t="n">
         <v>386.899</v>
@@ -4080,70 +4080,70 @@
         <v>74</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0</v>
+        <v>682.705</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>304.452</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>407.28</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>224.504</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>437.803</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>376.477</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>787.709</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>797.425</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>570.197</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>431.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>324.828</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>521.299</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0</v>
+        <v>170.212</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>119.808</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>920.821</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0</v>
+        <v>367.405</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0</v>
+        <v>890.499</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0</v>
+        <v>91.998</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>382.595</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>778.118</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0</v>
+        <v>347.94</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0</v>
+        <v>705.765</v>
       </c>
       <c r="X24" t="n">
         <v>0.0</v>
@@ -4197,7 +4197,7 @@
         <v>421.414</v>
       </c>
       <c r="AO24" t="n">
-        <v>241.15</v>
+        <v>0.0</v>
       </c>
       <c r="AP24" t="n">
         <v>549.786</v>
@@ -4209,7 +4209,7 @@
         <v>466.077</v>
       </c>
       <c r="AS24" t="n">
-        <v>279.687</v>
+        <v>0.0</v>
       </c>
       <c r="AT24" t="n">
         <v>456.777</v>
@@ -4241,73 +4241,73 @@
         <v>75</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0</v>
+        <v>295.732</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>596.211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>762.038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>885.96</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>263.893</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>497.785</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1034.898</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>782.081</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>183.099</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>407.258</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>785.597</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>758.425</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0</v>
+        <v>540.467</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>730.756</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0</v>
+        <v>318.09</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0</v>
+        <v>505.386</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0</v>
+        <v>860.865</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0</v>
+        <v>753.453</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0</v>
+        <v>396.358</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0</v>
+        <v>391.145</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0</v>
+        <v>750.735</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0</v>
+        <v>545.175</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>666.96</v>
       </c>
       <c r="Y25" t="n">
         <v>0.0</v>
@@ -4358,7 +4358,7 @@
         <v>277.763</v>
       </c>
       <c r="AO25" t="n">
-        <v>672.996</v>
+        <v>0.0</v>
       </c>
       <c r="AP25" t="n">
         <v>310.772</v>
@@ -4370,7 +4370,7 @@
         <v>546.783</v>
       </c>
       <c r="AS25" t="n">
-        <v>408.55</v>
+        <v>0.0</v>
       </c>
       <c r="AT25" t="n">
         <v>699.265</v>
@@ -4402,76 +4402,76 @@
         <v>76</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>408.091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>507.64</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>485.876</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>748.78</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>571.171</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>861.663</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>413.073</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>160.875</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>447.188</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>758.713</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>1109.827</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0</v>
+        <v>241.263</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0</v>
+        <v>656.924</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>847.213</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0</v>
+        <v>927.852</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0</v>
+        <v>436.851</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0</v>
+        <v>231.147</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0</v>
+        <v>869.91</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0</v>
+        <v>404.969</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0</v>
+        <v>409.528</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0</v>
+        <v>1074.965</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0</v>
+        <v>112.255</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>783.417</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0</v>
+        <v>620.141</v>
       </c>
       <c r="Z26" t="n">
         <v>0.0</v>
@@ -4483,7 +4483,7 @@
         <v>834.292</v>
       </c>
       <c r="AC26" t="n">
-        <v>468.366</v>
+        <v>462.809</v>
       </c>
       <c r="AD26" t="n">
         <v>980.92</v>
@@ -4519,7 +4519,7 @@
         <v>553.112</v>
       </c>
       <c r="AO26" t="n">
-        <v>992.047</v>
+        <v>0.0</v>
       </c>
       <c r="AP26" t="n">
         <v>305.863</v>
@@ -4531,7 +4531,7 @@
         <v>322.741</v>
       </c>
       <c r="AS26" t="n">
-        <v>530.726</v>
+        <v>0.0</v>
       </c>
       <c r="AT26" t="n">
         <v>312.633</v>
@@ -4563,79 +4563,79 @@
         <v>77</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0</v>
+        <v>94.589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>548.672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>654.004</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>868.371</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>389.982</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>665.417</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>842.682</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>475.745</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>133.686</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>574.889</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
+        <v>953.229</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0</v>
+        <v>479.186</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>522.879</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>713.167</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>614.35</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0</v>
+        <v>370.149</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0</v>
+        <v>554.53</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0</v>
+        <v>735.865</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0</v>
+        <v>270.923</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>164.905</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0</v>
+        <v>918.367</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0</v>
+        <v>238.839</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0</v>
+        <v>649.372</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0</v>
+        <v>306.639</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0</v>
+        <v>316.324</v>
       </c>
       <c r="AA27" t="n">
         <v>0.0</v>
@@ -4644,7 +4644,7 @@
         <v>521.509</v>
       </c>
       <c r="AC27" t="n">
-        <v>335.306</v>
+        <v>329.749</v>
       </c>
       <c r="AD27" t="n">
         <v>847.86</v>
@@ -4680,7 +4680,7 @@
         <v>326.098</v>
       </c>
       <c r="AO27" t="n">
-        <v>835.304</v>
+        <v>0.0</v>
       </c>
       <c r="AP27" t="n">
         <v>100.931</v>
@@ -4692,7 +4692,7 @@
         <v>340.557</v>
       </c>
       <c r="AS27" t="n">
-        <v>397.666</v>
+        <v>0.0</v>
       </c>
       <c r="AT27" t="n">
         <v>478.497</v>
@@ -4724,82 +4724,82 @@
         <v>78</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0</v>
+        <v>507.363</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>759.018</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>924.845</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>1048.767</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>426.701</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>660.593</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>1197.705</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>993.713</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>394.731</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>570.065</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>948.405</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0</v>
+        <v>921.232</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>703.274</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>893.563</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>97.09</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0</v>
+        <v>668.194</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0</v>
+        <v>1072.497</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0</v>
+        <v>916.261</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>559.165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>602.777</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>913.543</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>756.806</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>829.768</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>227.621</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0</v>
+        <v>834.292</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>521.509</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -4841,7 +4841,7 @@
         <v>434.135</v>
       </c>
       <c r="AO28" t="n">
-        <v>829.367</v>
+        <v>0.0</v>
       </c>
       <c r="AP28" t="n">
         <v>525.795</v>
@@ -4853,7 +4853,7 @@
         <v>802.201</v>
       </c>
       <c r="AS28" t="n">
-        <v>564.922</v>
+        <v>0.0</v>
       </c>
       <c r="AT28" t="n">
         <v>855.637</v>
@@ -4885,85 +4885,85 @@
         <v>79</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0</v>
+        <v>361.901</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>253.364</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>419.191</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>550.166</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>107.544</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>399.899</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>695.457</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>622.23</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>249.393</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>296.949</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>648.063</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0</v>
+        <v>418.984</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>204.673</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0</v>
+        <v>394.962</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0</v>
+        <v>590.561</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0</v>
+        <v>165.946</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0</v>
+        <v>701.014</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>417.659</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0</v>
+        <v>62.154</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0</v>
+        <v>457.314</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>613.201</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>385.324</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0</v>
+        <v>331.166</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0</v>
+        <v>341.502</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>462.809</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0</v>
+        <v>329.749</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>497.874</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -5002,7 +5002,7 @@
         <v>96.711</v>
       </c>
       <c r="AO29" t="n">
-        <v>534.27</v>
+        <v>0.0</v>
       </c>
       <c r="AP29" t="n">
         <v>227.453</v>
@@ -5014,7 +5014,7 @@
         <v>301.785</v>
       </c>
       <c r="AS29" t="n">
-        <v>72.335</v>
+        <v>0.0</v>
       </c>
       <c r="AT29" t="n">
         <v>357.309</v>
@@ -5046,88 +5046,88 @@
         <v>80</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0</v>
+        <v>880.376</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>502.123</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>471.72</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>201.028</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>635.474</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>419.117</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>868.884</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>995.095</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>767.868</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>473.461</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>235.635</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0</v>
+        <v>718.969</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>343.531</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>162.619</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>1118.491</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0</v>
+        <v>565.076</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0</v>
+        <v>1088.169</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0</v>
+        <v>124.434</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>580.266</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0</v>
+        <v>975.789</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0</v>
+        <v>301.12</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>903.435</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>202.279</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>869.432</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0</v>
+        <v>980.92</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>847.86</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0</v>
+        <v>1025.804</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0</v>
+        <v>528.784</v>
       </c>
       <c r="AD30" t="n">
         <v>0.0</v>
@@ -5163,7 +5163,7 @@
         <v>619.636</v>
       </c>
       <c r="AO30" t="n">
-        <v>205.742</v>
+        <v>0.0</v>
       </c>
       <c r="AP30" t="n">
         <v>748.008</v>
@@ -5175,7 +5175,7 @@
         <v>664.299</v>
       </c>
       <c r="AS30" t="n">
-        <v>477.909</v>
+        <v>0.0</v>
       </c>
       <c r="AT30" t="n">
         <v>610.242</v>
@@ -5207,91 +5207,91 @@
         <v>81</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0</v>
+        <v>743.089</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>144.17</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>81.456</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0</v>
+        <v>217.677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>511.267</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>666.068</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>478.62</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>576.364</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>630.581</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>650.635</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>565.9</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0</v>
+        <v>300.238</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>360.892</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>452.579</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>994.284</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>305.927</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>669.437</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0</v>
+        <v>277.379</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0</v>
+        <v>425.417</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0</v>
+        <v>798.389</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0</v>
+        <v>619.133</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>614.528</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>334.584</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>745.225</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>539.688</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>706.126</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0</v>
+        <v>901.597</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0</v>
+        <v>399.456</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0</v>
+        <v>399.57</v>
       </c>
       <c r="AE31" t="n">
         <v>0.0</v>
@@ -5324,7 +5324,7 @@
         <v>494.886</v>
       </c>
       <c r="AO31" t="n">
-        <v>522.963</v>
+        <v>0.0</v>
       </c>
       <c r="AP31" t="n">
         <v>593.307</v>
@@ -5336,7 +5336,7 @@
         <v>372.212</v>
       </c>
       <c r="AS31" t="n">
-        <v>390.95</v>
+        <v>0.0</v>
       </c>
       <c r="AT31" t="n">
         <v>218.678</v>
@@ -5368,94 +5368,94 @@
         <v>82</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0</v>
+        <v>98.225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>575.694</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>661.864</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>924.768</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>467.316</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0</v>
+        <v>742.751</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>850.542</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>483.606</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>211.02</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>652.223</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>1030.563</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0</v>
+        <v>487.046</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>585.279</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>775.568</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0</v>
+        <v>691.684</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0</v>
+        <v>432.55</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0</v>
+        <v>562.39</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0</v>
+        <v>798.265</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>333.323</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>82.063</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>995.701</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>165.149</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>711.772</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>383.973</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>324.185</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0</v>
+        <v>85.06</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0</v>
+        <v>598.997</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0</v>
+        <v>389.44</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0</v>
+        <v>909.994</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0</v>
+        <v>715.097</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
@@ -5485,7 +5485,7 @@
         <v>404.595</v>
       </c>
       <c r="AO32" t="n">
-        <v>913.801</v>
+        <v>0.0</v>
       </c>
       <c r="AP32" t="n">
         <v>178.626</v>
@@ -5497,7 +5497,7 @@
         <v>348.365</v>
       </c>
       <c r="AS32" t="n">
-        <v>460.433</v>
+        <v>0.0</v>
       </c>
       <c r="AT32" t="n">
         <v>486.306</v>
@@ -5529,97 +5529,97 @@
         <v>83</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
+        <v>568.892</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>759.544</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>925.371</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>1049.293</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>427.227</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>567.185</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>1198.231</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>1055.241</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>456.26</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>526.359</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>904.699</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0</v>
+        <v>921.758</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>703.801</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>840.442</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>173.229</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>668.72</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0</v>
+        <v>1134.026</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0</v>
+        <v>916.787</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>559.691</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0</v>
+        <v>664.305</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0</v>
+        <v>855.106</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>818.335</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>830.294</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>300.794</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>895.82</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>583.037</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0</v>
+        <v>111.631</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0</v>
+        <v>505.592</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0</v>
+        <v>991.114</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>903.766</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.0</v>
+        <v>661.534</v>
       </c>
       <c r="AG33" t="n">
         <v>0.0</v>
@@ -5646,7 +5646,7 @@
         <v>434.605</v>
       </c>
       <c r="AO33" t="n">
-        <v>786.403</v>
+        <v>0.0</v>
       </c>
       <c r="AP33" t="n">
         <v>549.512</v>
@@ -5658,7 +5658,7 @@
         <v>802.671</v>
       </c>
       <c r="AS33" t="n">
-        <v>565.393</v>
+        <v>0.0</v>
       </c>
       <c r="AT33" t="n">
         <v>856.107</v>
@@ -5690,100 +5690,100 @@
         <v>84</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0</v>
+        <v>341.7</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>705.329</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>871.156</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>995.078</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>373.012</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>606.904</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>1144.016</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>894.739</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>295.757</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>516.376</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>894.716</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0</v>
+        <v>867.543</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>649.585</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>839.874</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>285.613</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0</v>
+        <v>614.504</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0</v>
+        <v>973.523</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0</v>
+        <v>862.571</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0</v>
+        <v>505.476</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0</v>
+        <v>378.257</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>859.854</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>657.832</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>776.079</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>129.023</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0</v>
+        <v>735.318</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0</v>
+        <v>422.535</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>227.137</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0</v>
+        <v>451.376</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0</v>
+        <v>974.301</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0</v>
+        <v>849.55</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.0</v>
+        <v>434.652</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0</v>
+        <v>338.977</v>
       </c>
       <c r="AH34" t="n">
         <v>0.0</v>
@@ -5807,7 +5807,7 @@
         <v>382.724</v>
       </c>
       <c r="AO34" t="n">
-        <v>777.956</v>
+        <v>0.0</v>
       </c>
       <c r="AP34" t="n">
         <v>428.566</v>
@@ -5819,7 +5819,7 @@
         <v>664.577</v>
       </c>
       <c r="AS34" t="n">
-        <v>513.511</v>
+        <v>0.0</v>
       </c>
       <c r="AT34" t="n">
         <v>804.226</v>
@@ -5851,103 +5851,103 @@
         <v>85</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0</v>
+        <v>202.649</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>519.035</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>684.862</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>808.784</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>186.718</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>462.153</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>929.915</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>688.998</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>90.017</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0</v>
+        <v>371.625</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>749.964</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0</v>
+        <v>555.441</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>463.291</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0</v>
+        <v>653.58</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0</v>
+        <v>440.086</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0</v>
+        <v>400.403</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0</v>
+        <v>767.783</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0</v>
+        <v>676.278</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>248.67</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0</v>
+        <v>298.062</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0</v>
+        <v>715.102</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0</v>
+        <v>452.092</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0</v>
+        <v>589.785</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0</v>
+        <v>132.375</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0</v>
+        <v>529.577</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0</v>
+        <v>216.794</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0</v>
+        <v>347.399</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0</v>
+        <v>265.083</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0</v>
+        <v>788.007</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0</v>
+        <v>663.257</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0</v>
+        <v>295.292</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0</v>
+        <v>343.416</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0</v>
+        <v>250.169</v>
       </c>
       <c r="AI35" t="n">
         <v>0.0</v>
@@ -5968,7 +5968,7 @@
         <v>164.681</v>
       </c>
       <c r="AO35" t="n">
-        <v>632.447</v>
+        <v>0.0</v>
       </c>
       <c r="AP35" t="n">
         <v>204.392</v>
@@ -5980,7 +5980,7 @@
         <v>419.078</v>
       </c>
       <c r="AS35" t="n">
-        <v>326.28</v>
+        <v>0.0</v>
       </c>
       <c r="AT35" t="n">
         <v>590.701</v>
@@ -6012,106 +6012,106 @@
         <v>86</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0</v>
+        <v>2219.676</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>1911.853</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>2008.482</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0</v>
+        <v>1825.706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>1896.594</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>1609.014</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>2395.11</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>2404.826</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>2107.044</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0</v>
+        <v>1663.359</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0</v>
+        <v>1526.976</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0</v>
+        <v>2128.7</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0</v>
+        <v>1736.286</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0</v>
+        <v>1555.374</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0</v>
+        <v>2270.683</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0</v>
+        <v>1974.807</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0</v>
+        <v>2497.9</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0</v>
+        <v>1661.196</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0</v>
+        <v>1989.91</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0</v>
+        <v>2315.089</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0</v>
+        <v>1322.413</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0</v>
+        <v>2313.079</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0</v>
+        <v>1651.654</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0</v>
+        <v>2071.513</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0</v>
+        <v>2390.564</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0</v>
+        <v>2233.822</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0</v>
+        <v>2227.885</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0</v>
+        <v>1932.787</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0</v>
+        <v>1618.813</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0</v>
+        <v>1936.033</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0</v>
+        <v>2312.319</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0</v>
+        <v>2184.75</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.0</v>
+        <v>2176.474</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.0</v>
+        <v>2030.964</v>
       </c>
       <c r="AJ36" t="n">
         <v>0.0</v>
@@ -6120,52 +6120,52 @@
         <v>2135.359</v>
       </c>
       <c r="AL36" t="n">
-        <v>1859.96</v>
+        <v>0.0</v>
       </c>
       <c r="AM36" t="n">
-        <v>2225.647</v>
+        <v>0.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>1958.597</v>
+        <v>0.0</v>
       </c>
       <c r="AO36" t="n">
-        <v>1409.188</v>
+        <v>0.0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2156.531</v>
+        <v>0.0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2313.2</v>
+        <v>0.0</v>
       </c>
       <c r="AR36" t="n">
-        <v>2073.202</v>
+        <v>0.0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1891.526</v>
+        <v>0.0</v>
       </c>
       <c r="AT36" t="n">
-        <v>2063.902</v>
+        <v>0.0</v>
       </c>
       <c r="AU36" t="n">
-        <v>1981.718</v>
+        <v>0.0</v>
       </c>
       <c r="AV36" t="n">
-        <v>2259.097</v>
+        <v>0.0</v>
       </c>
       <c r="AW36" t="n">
-        <v>1927.052</v>
+        <v>0.0</v>
       </c>
       <c r="AX36" t="n">
-        <v>2242.665</v>
+        <v>0.0</v>
       </c>
       <c r="AY36" t="n">
-        <v>1629.919</v>
+        <v>0.0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1888.85</v>
+        <v>0.0</v>
       </c>
       <c r="BA36" t="n">
-        <v>177.246</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -6173,160 +6173,160 @@
         <v>87</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0</v>
+        <v>681.597</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>872.249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>1038.076</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0</v>
+        <v>1161.998</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>539.932</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>523.337</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1310.936</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>1167.946</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0</v>
+        <v>568.964</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0</v>
+        <v>572.876</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0</v>
+        <v>861.5</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0</v>
+        <v>1034.463</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>816.505</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0</v>
+        <v>797.243</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0</v>
+        <v>132.767</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>781.425</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>1246.73</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0</v>
+        <v>1029.492</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0</v>
+        <v>672.396</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0</v>
+        <v>736.712</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0</v>
+        <v>811.564</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0</v>
+        <v>931.04</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>942.999</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0</v>
+        <v>413.499</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0</v>
+        <v>1008.525</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0</v>
+        <v>695.742</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0</v>
+        <v>195.39</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0</v>
+        <v>618.296</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0</v>
+        <v>947.915</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.0</v>
+        <v>1016.471</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.0</v>
+        <v>774.239</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0</v>
+        <v>116.626</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.0</v>
+        <v>387.17</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.0</v>
+        <v>457.978</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.0</v>
+        <v>2135.359</v>
       </c>
       <c r="AK37" t="n">
         <v>0.0</v>
       </c>
       <c r="AL37" t="n">
-        <v>438.722</v>
+        <v>0.0</v>
       </c>
       <c r="AM37" t="n">
-        <v>550.401</v>
+        <v>0.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>549.355</v>
+        <v>0.0</v>
       </c>
       <c r="AO37" t="n">
-        <v>745.286</v>
+        <v>0.0</v>
       </c>
       <c r="AP37" t="n">
-        <v>664.262</v>
+        <v>0.0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1095.611</v>
+        <v>0.0</v>
       </c>
       <c r="AR37" t="n">
-        <v>917.421</v>
+        <v>0.0</v>
       </c>
       <c r="AS37" t="n">
-        <v>680.142</v>
+        <v>0.0</v>
       </c>
       <c r="AT37" t="n">
-        <v>970.857</v>
+        <v>0.0</v>
       </c>
       <c r="AU37" t="n">
-        <v>460.395</v>
+        <v>0.0</v>
       </c>
       <c r="AV37" t="n">
-        <v>641.173</v>
+        <v>0.0</v>
       </c>
       <c r="AW37" t="n">
-        <v>374.197</v>
+        <v>0.0</v>
       </c>
       <c r="AX37" t="n">
-        <v>864.967</v>
+        <v>0.0</v>
       </c>
       <c r="AY37" t="n">
-        <v>967.508</v>
+        <v>0.0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1276.981</v>
+        <v>0.0</v>
       </c>
       <c r="BA37" t="n">
-        <v>2225.631</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -6334,106 +6334,106 @@
         <v>88</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0</v>
+        <v>356.681</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>474.438</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>640.265</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>764.187</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>109.863</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>291.812</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>913.125</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0</v>
+        <v>843.031</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>244.049</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>201.284</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0</v>
+        <v>579.624</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0</v>
+        <v>636.652</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0</v>
+        <v>352.888</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>515.367</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>459.623</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0</v>
+        <v>383.614</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0</v>
+        <v>921.815</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0</v>
+        <v>631.681</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0</v>
+        <v>274.585</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0</v>
+        <v>452.094</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0</v>
+        <v>544.762</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0</v>
+        <v>606.124</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0</v>
+        <v>545.188</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0</v>
+        <v>210.564</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0</v>
+        <v>683.61</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>370.827</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0</v>
+        <v>366.936</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0</v>
+        <v>220.485</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0</v>
+        <v>666.039</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>618.66</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0</v>
+        <v>449.324</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0</v>
+        <v>323.972</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0</v>
+        <v>315.525</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.0</v>
+        <v>167.969</v>
       </c>
       <c r="AJ38" t="n">
         <v>0.0</v>
@@ -6445,49 +6445,49 @@
         <v>0.0</v>
       </c>
       <c r="AM38" t="n">
-        <v>363.436</v>
+        <v>0.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>171.554</v>
+        <v>0.0</v>
       </c>
       <c r="AO38" t="n">
-        <v>461.878</v>
+        <v>0.0</v>
       </c>
       <c r="AP38" t="n">
-        <v>323.374</v>
+        <v>0.0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>768.421</v>
+        <v>0.0</v>
       </c>
       <c r="AR38" t="n">
-        <v>517.532</v>
+        <v>0.0</v>
       </c>
       <c r="AS38" t="n">
-        <v>236.467</v>
+        <v>0.0</v>
       </c>
       <c r="AT38" t="n">
-        <v>570.968</v>
+        <v>0.0</v>
       </c>
       <c r="AU38" t="n">
-        <v>119.506</v>
+        <v>0.0</v>
       </c>
       <c r="AV38" t="n">
-        <v>396.885</v>
+        <v>0.0</v>
       </c>
       <c r="AW38" t="n">
-        <v>66.103</v>
+        <v>0.0</v>
       </c>
       <c r="AX38" t="n">
-        <v>537.777</v>
+        <v>0.0</v>
       </c>
       <c r="AY38" t="n">
-        <v>684.1</v>
+        <v>0.0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>877.092</v>
+        <v>0.0</v>
       </c>
       <c r="BA38" t="n">
-        <v>1944.762</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -6495,106 +6495,106 @@
         <v>89</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0</v>
+        <v>159.747</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>695.983</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>861.81</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>1004.131</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>382.065</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>657.5</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>1073.012</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0</v>
+        <v>706.075</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>181.045</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0</v>
+        <v>566.972</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0</v>
+        <v>945.312</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0</v>
+        <v>709.516</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0</v>
+        <v>658.639</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0</v>
+        <v>848.927</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0</v>
+        <v>453.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0</v>
+        <v>608.565</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0</v>
+        <v>784.86</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0</v>
+        <v>871.625</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0</v>
+        <v>456.831</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0</v>
+        <v>196.304</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0</v>
+        <v>910.45</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0</v>
+        <v>469.169</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0</v>
+        <v>785.132</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0</v>
+        <v>265.091</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0</v>
+        <v>546.654</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0</v>
+        <v>233.871</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0</v>
+        <v>395.064</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0</v>
+        <v>454.574</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.0</v>
+        <v>983.354</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0</v>
+        <v>840.204</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0</v>
+        <v>252.698</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0</v>
+        <v>542.244</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0</v>
+        <v>193.827</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.0</v>
+        <v>200.602</v>
       </c>
       <c r="AJ39" t="n">
         <v>0.0</v>
@@ -6609,46 +6609,46 @@
         <v>0.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>360.97</v>
+        <v>0.0</v>
       </c>
       <c r="AO39" t="n">
-        <v>828.736</v>
+        <v>0.0</v>
       </c>
       <c r="AP39" t="n">
-        <v>320.87</v>
+        <v>0.0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>632.042</v>
+        <v>0.0</v>
       </c>
       <c r="AR39" t="n">
-        <v>571.767</v>
+        <v>0.0</v>
       </c>
       <c r="AS39" t="n">
-        <v>522.57</v>
+        <v>0.0</v>
       </c>
       <c r="AT39" t="n">
-        <v>709.707</v>
+        <v>0.0</v>
       </c>
       <c r="AU39" t="n">
-        <v>247.069</v>
+        <v>0.0</v>
       </c>
       <c r="AV39" t="n">
-        <v>102.4</v>
+        <v>0.0</v>
       </c>
       <c r="AW39" t="n">
-        <v>344.527</v>
+        <v>0.0</v>
       </c>
       <c r="AX39" t="n">
-        <v>401.398</v>
+        <v>0.0</v>
       </c>
       <c r="AY39" t="n">
-        <v>1050.957</v>
+        <v>0.0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>1119.409</v>
+        <v>0.0</v>
       </c>
       <c r="BA39" t="n">
-        <v>2311.62</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -6656,106 +6656,106 @@
         <v>90</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0</v>
+        <v>311.953</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>350.664</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>516.491</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>640.413</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>65.893</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>390.449</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>789.351</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>712.533</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>199.445</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0</v>
+        <v>299.922</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0</v>
+        <v>678.261</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0</v>
+        <v>512.878</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0</v>
+        <v>294.92</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0</v>
+        <v>485.209</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0</v>
+        <v>526.822</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0</v>
+        <v>259.84</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0</v>
+        <v>791.318</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0</v>
+        <v>507.907</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0</v>
+        <v>150.811</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0</v>
+        <v>407.366</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0</v>
+        <v>643.399</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0</v>
+        <v>475.627</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0</v>
+        <v>421.414</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0</v>
+        <v>277.763</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0</v>
+        <v>553.112</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0</v>
+        <v>326.098</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0</v>
+        <v>434.135</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0</v>
+        <v>96.711</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0</v>
+        <v>619.636</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0</v>
+        <v>494.886</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.0</v>
+        <v>404.595</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0</v>
+        <v>434.605</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.0</v>
+        <v>382.724</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.0</v>
+        <v>164.681</v>
       </c>
       <c r="AJ40" t="n">
         <v>0.0</v>
@@ -6773,43 +6773,43 @@
         <v>0.0</v>
       </c>
       <c r="AO40" t="n">
-        <v>558.977</v>
+        <v>0.0</v>
       </c>
       <c r="AP40" t="n">
-        <v>191.809</v>
+        <v>0.0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>637.618</v>
+        <v>0.0</v>
       </c>
       <c r="AR40" t="n">
-        <v>394.752</v>
+        <v>0.0</v>
       </c>
       <c r="AS40" t="n">
-        <v>157.473</v>
+        <v>0.0</v>
       </c>
       <c r="AT40" t="n">
-        <v>448.188</v>
+        <v>0.0</v>
       </c>
       <c r="AU40" t="n">
-        <v>115.589</v>
+        <v>0.0</v>
       </c>
       <c r="AV40" t="n">
-        <v>355.969</v>
+        <v>0.0</v>
       </c>
       <c r="AW40" t="n">
-        <v>189.195</v>
+        <v>0.0</v>
       </c>
       <c r="AX40" t="n">
-        <v>406.554</v>
+        <v>0.0</v>
       </c>
       <c r="AY40" t="n">
-        <v>792.552</v>
+        <v>0.0</v>
       </c>
       <c r="AZ40" t="n">
-        <v>754.312</v>
+        <v>0.0</v>
       </c>
       <c r="BA40" t="n">
-        <v>2041.861</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -6937,40 +6937,40 @@
         <v>0.0</v>
       </c>
       <c r="AP41" t="n">
-        <v>758.892</v>
+        <v>0.0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>903.1</v>
+        <v>0.0</v>
       </c>
       <c r="AR41" t="n">
-        <v>663.101</v>
+        <v>0.0</v>
       </c>
       <c r="AS41" t="n">
-        <v>476.712</v>
+        <v>0.0</v>
       </c>
       <c r="AT41" t="n">
-        <v>653.801</v>
+        <v>0.0</v>
       </c>
       <c r="AU41" t="n">
-        <v>584.079</v>
+        <v>0.0</v>
       </c>
       <c r="AV41" t="n">
-        <v>861.458</v>
+        <v>0.0</v>
       </c>
       <c r="AW41" t="n">
-        <v>529.413</v>
+        <v>0.0</v>
       </c>
       <c r="AX41" t="n">
-        <v>845.026</v>
+        <v>0.0</v>
       </c>
       <c r="AY41" t="n">
-        <v>225.891</v>
+        <v>0.0</v>
       </c>
       <c r="AZ41" t="n">
-        <v>477.352</v>
+        <v>0.0</v>
       </c>
       <c r="BA41" t="n">
-        <v>1494.093</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -6978,106 +6978,106 @@
         <v>92</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>180.485</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>449.085</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>554.238</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>768.785</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>253.268</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>628.031</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>742.917</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>465.284</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>141.995</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0</v>
+        <v>525.081</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0</v>
+        <v>876.195</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0</v>
+        <v>379.421</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0</v>
+        <v>423.292</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0</v>
+        <v>613.581</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0</v>
+        <v>618.483</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0</v>
+        <v>270.563</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0</v>
+        <v>544.068</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0</v>
+        <v>636.278</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0</v>
+        <v>171.337</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0</v>
+        <v>263.08</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0</v>
+        <v>841.333</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0</v>
+        <v>228.377</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0</v>
+        <v>549.786</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0</v>
+        <v>310.772</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0</v>
+        <v>305.863</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0</v>
+        <v>100.931</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0</v>
+        <v>525.795</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0</v>
+        <v>227.453</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.0</v>
+        <v>748.008</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.0</v>
+        <v>593.307</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.0</v>
+        <v>178.626</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0</v>
+        <v>549.512</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0</v>
+        <v>428.566</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.0</v>
+        <v>204.392</v>
       </c>
       <c r="AJ42" t="n">
         <v>0.0</v>
@@ -7101,37 +7101,37 @@
         <v>0.0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>389.546</v>
+        <v>0.0</v>
       </c>
       <c r="AR42" t="n">
-        <v>238.69</v>
+        <v>0.0</v>
       </c>
       <c r="AS42" t="n">
-        <v>299.833</v>
+        <v>0.0</v>
       </c>
       <c r="AT42" t="n">
-        <v>376.631</v>
+        <v>0.0</v>
       </c>
       <c r="AU42" t="n">
-        <v>207.429</v>
+        <v>0.0</v>
       </c>
       <c r="AV42" t="n">
-        <v>229.451</v>
+        <v>0.0</v>
       </c>
       <c r="AW42" t="n">
-        <v>304.825</v>
+        <v>0.0</v>
       </c>
       <c r="AX42" t="n">
-        <v>158.902</v>
+        <v>0.0</v>
       </c>
       <c r="AY42" t="n">
-        <v>924.226</v>
+        <v>0.0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>885.986</v>
+        <v>0.0</v>
       </c>
       <c r="BA42" t="n">
-        <v>2244.038</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -7139,106 +7139,106 @@
         <v>93</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0</v>
+        <v>491.658</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>453.783</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>432.019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>694.923</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>654.737</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>945.23</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>350.577</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>98.379</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>530.754</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0</v>
+        <v>842.28</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>1022.824</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0</v>
+        <v>187.406</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0</v>
+        <v>600.86</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0</v>
+        <v>769.87</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0</v>
+        <v>1011.418</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0</v>
+        <v>450.118</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0</v>
+        <v>191.453</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0</v>
+        <v>754.625</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0</v>
+        <v>488.535</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0</v>
+        <v>493.095</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0</v>
+        <v>998.003</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0</v>
+        <v>212.159</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0</v>
+        <v>706.075</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0</v>
+        <v>703.708</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0</v>
+        <v>100.433</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0</v>
+        <v>400.832</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0</v>
+        <v>918.731</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0</v>
+        <v>544.652</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0</v>
+        <v>904.297</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0</v>
+        <v>485.253</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.0</v>
+        <v>408.641</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0</v>
+        <v>980.861</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.0</v>
+        <v>821.501</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.0</v>
+        <v>615.85</v>
       </c>
       <c r="AJ43" t="n">
         <v>0.0</v>
@@ -7265,34 +7265,34 @@
         <v>0.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>335.968</v>
+        <v>0.0</v>
       </c>
       <c r="AS43" t="n">
-        <v>618.369</v>
+        <v>0.0</v>
       </c>
       <c r="AT43" t="n">
-        <v>258.593</v>
+        <v>0.0</v>
       </c>
       <c r="AU43" t="n">
-        <v>650.855</v>
+        <v>0.0</v>
       </c>
       <c r="AV43" t="n">
-        <v>533.3</v>
+        <v>0.0</v>
       </c>
       <c r="AW43" t="n">
-        <v>748.312</v>
+        <v>0.0</v>
       </c>
       <c r="AX43" t="n">
-        <v>236.009</v>
+        <v>0.0</v>
       </c>
       <c r="AY43" t="n">
-        <v>1078.577</v>
+        <v>0.0</v>
       </c>
       <c r="AZ43" t="n">
-        <v>985.762</v>
+        <v>0.0</v>
       </c>
       <c r="BA43" t="n">
-        <v>2398.477</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -7300,106 +7300,106 @@
         <v>94</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0</v>
+        <v>431.383</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>226.379</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>318.979</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>581.883</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>411.871</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>702.363</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>507.657</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0</v>
+        <v>426.684</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>378.006</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0</v>
+        <v>599.413</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0</v>
+        <v>782.826</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0</v>
+        <v>144.161</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0</v>
+        <v>360.861</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0</v>
+        <v>529.872</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0</v>
+        <v>894.888</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0</v>
+        <v>148.444</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0</v>
+        <v>519.757</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0</v>
+        <v>552.569</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0</v>
+        <v>245.669</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0</v>
+        <v>432.819</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0</v>
+        <v>758.004</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0</v>
+        <v>248.958</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0</v>
+        <v>466.077</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0</v>
+        <v>546.783</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.0</v>
+        <v>322.741</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0</v>
+        <v>340.557</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0</v>
+        <v>802.201</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0</v>
+        <v>301.785</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0</v>
+        <v>664.299</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0</v>
+        <v>372.212</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.0</v>
+        <v>348.365</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.0</v>
+        <v>802.671</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.0</v>
+        <v>664.577</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.0</v>
+        <v>419.078</v>
       </c>
       <c r="AJ44" t="n">
         <v>0.0</v>
@@ -7429,31 +7429,31 @@
         <v>0.0</v>
       </c>
       <c r="AS44" t="n">
-        <v>325.918</v>
+        <v>0.0</v>
       </c>
       <c r="AT44" t="n">
-        <v>144.004</v>
+        <v>0.0</v>
       </c>
       <c r="AU44" t="n">
-        <v>421.882</v>
+        <v>0.0</v>
       </c>
       <c r="AV44" t="n">
-        <v>474.026</v>
+        <v>0.0</v>
       </c>
       <c r="AW44" t="n">
-        <v>557.777</v>
+        <v>0.0</v>
       </c>
       <c r="AX44" t="n">
-        <v>171.141</v>
+        <v>0.0</v>
       </c>
       <c r="AY44" t="n">
-        <v>839.449</v>
+        <v>0.0</v>
       </c>
       <c r="AZ44" t="n">
-        <v>801.209</v>
+        <v>0.0</v>
       </c>
       <c r="BA44" t="n">
-        <v>2159.349</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -7593,28 +7593,28 @@
         <v>0.0</v>
       </c>
       <c r="AT45" t="n">
-        <v>370.918</v>
+        <v>0.0</v>
       </c>
       <c r="AU45" t="n">
-        <v>257.457</v>
+        <v>0.0</v>
       </c>
       <c r="AV45" t="n">
-        <v>468.923</v>
+        <v>0.0</v>
       </c>
       <c r="AW45" t="n">
-        <v>320.84</v>
+        <v>0.0</v>
       </c>
       <c r="AX45" t="n">
-        <v>383.504</v>
+        <v>0.0</v>
       </c>
       <c r="AY45" t="n">
-        <v>651.121</v>
+        <v>0.0</v>
       </c>
       <c r="AZ45" t="n">
-        <v>612.881</v>
+        <v>0.0</v>
       </c>
       <c r="BA45" t="n">
-        <v>1976.841</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -7622,106 +7622,106 @@
         <v>96</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0</v>
+        <v>569.323</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>187.209</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>165.445</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>428.349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>465.307</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>656.737</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>354.144</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
+        <v>349.309</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>588.435</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0</v>
+        <v>629.183</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0</v>
+        <v>773.526</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0</v>
+        <v>73.183</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0</v>
+        <v>351.562</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0</v>
+        <v>520.572</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0</v>
+        <v>948.324</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0</v>
+        <v>200.819</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0</v>
+        <v>442.383</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0</v>
+        <v>488.051</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0</v>
+        <v>332.182</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0</v>
+        <v>570.76</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0</v>
+        <v>748.704</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0</v>
+        <v>386.899</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0</v>
+        <v>456.777</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0</v>
+        <v>699.265</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0</v>
+        <v>312.633</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0</v>
+        <v>478.497</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0</v>
+        <v>855.637</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0</v>
+        <v>357.309</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.0</v>
+        <v>610.242</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.0</v>
+        <v>218.678</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.0</v>
+        <v>486.306</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.0</v>
+        <v>856.107</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.0</v>
+        <v>804.226</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.0</v>
+        <v>590.701</v>
       </c>
       <c r="AJ46" t="n">
         <v>0.0</v>
@@ -7757,25 +7757,25 @@
         <v>0.0</v>
       </c>
       <c r="AU46" t="n">
-        <v>547.76</v>
+        <v>0.0</v>
       </c>
       <c r="AV46" t="n">
-        <v>612.032</v>
+        <v>0.0</v>
       </c>
       <c r="AW46" t="n">
-        <v>611.143</v>
+        <v>0.0</v>
       </c>
       <c r="AX46" t="n">
-        <v>309.147</v>
+        <v>0.0</v>
       </c>
       <c r="AY46" t="n">
-        <v>782.714</v>
+        <v>0.0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>718.367</v>
+        <v>0.0</v>
       </c>
       <c r="BA46" t="n">
-        <v>2149.115</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -7783,106 +7783,106 @@
         <v>97</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0</v>
+        <v>239.492</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>449.497</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>615.324</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>739.246</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>119.275</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>413.57</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>888.184</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>725.841</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>126.86</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0</v>
+        <v>323.043</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>701.382</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0</v>
+        <v>611.711</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0</v>
+        <v>393.754</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0</v>
+        <v>584.042</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0</v>
+        <v>437.862</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0</v>
+        <v>358.673</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0</v>
+        <v>804.626</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0</v>
+        <v>606.74</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0</v>
+        <v>249.644</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0</v>
+        <v>334.905</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0</v>
+        <v>666.52</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0</v>
+        <v>488.935</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0</v>
+        <v>520.247</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0</v>
+        <v>138.114</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0</v>
+        <v>566.42</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0</v>
+        <v>253.637</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0</v>
+        <v>345.174</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0</v>
+        <v>195.545</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.0</v>
+        <v>718.469</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0</v>
+        <v>593.719</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.0</v>
+        <v>332.134</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0</v>
+        <v>345.645</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.0</v>
+        <v>256.114</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.0</v>
+        <v>50.78</v>
       </c>
       <c r="AJ47" t="n">
         <v>0.0</v>
@@ -7921,22 +7921,22 @@
         <v>0.0</v>
       </c>
       <c r="AV47" t="n">
-        <v>280.561</v>
+        <v>0.0</v>
       </c>
       <c r="AW47" t="n">
-        <v>100.4</v>
+        <v>0.0</v>
       </c>
       <c r="AX47" t="n">
-        <v>421.453</v>
+        <v>0.0</v>
       </c>
       <c r="AY47" t="n">
-        <v>806.831</v>
+        <v>0.0</v>
       </c>
       <c r="AZ47" t="n">
-        <v>853.299</v>
+        <v>0.0</v>
       </c>
       <c r="BA47" t="n">
-        <v>2067.493</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -7944,106 +7944,106 @@
         <v>98</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0</v>
+        <v>61.958</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>638.893</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>786.544</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>941.945</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>415.515</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>690.949</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>975.222</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
+        <v>608.286</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>159.219</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0</v>
+        <v>600.422</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0</v>
+        <v>978.761</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0</v>
+        <v>611.726</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0</v>
+        <v>596.453</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0</v>
+        <v>786.742</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0</v>
+        <v>544.313</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0</v>
+        <v>551.475</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0</v>
+        <v>687.07</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0</v>
+        <v>809.439</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0</v>
+        <v>399.741</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0</v>
+        <v>101.52</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0</v>
+        <v>943.899</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0</v>
+        <v>371.38</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0</v>
+        <v>722.946</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0</v>
+        <v>332.172</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0</v>
+        <v>448.865</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0</v>
+        <v>136.082</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0</v>
+        <v>485.837</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.0</v>
+        <v>397.484</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.0</v>
+        <v>921.168</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0</v>
+        <v>783.114</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.0</v>
+        <v>154.909</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.0</v>
+        <v>609.325</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.0</v>
+        <v>284.6</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.0</v>
+        <v>244.314</v>
       </c>
       <c r="AJ48" t="n">
         <v>0.0</v>
@@ -8085,19 +8085,19 @@
         <v>0.0</v>
       </c>
       <c r="AW48" t="n">
-        <v>376.838</v>
+        <v>0.0</v>
       </c>
       <c r="AX48" t="n">
-        <v>302.384</v>
+        <v>0.0</v>
       </c>
       <c r="AY48" t="n">
-        <v>1083.268</v>
+        <v>0.0</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1056.222</v>
+        <v>0.0</v>
       </c>
       <c r="BA48" t="n">
-        <v>2343.931</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -8105,106 +8105,106 @@
         <v>99</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0</v>
+        <v>336.949</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>512.88</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>678.707</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>802.629</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>179.076</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>358.904</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>951.567</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
+        <v>823.299</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>224.317</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0</v>
+        <v>268.376</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0</v>
+        <v>646.716</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0</v>
+        <v>675.094</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0</v>
+        <v>457.136</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0</v>
+        <v>582.459</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0</v>
+        <v>395.099</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0</v>
+        <v>422.055</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0</v>
+        <v>902.083</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0</v>
+        <v>670.122</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0</v>
+        <v>313.027</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0</v>
+        <v>432.362</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0</v>
+        <v>611.854</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0</v>
+        <v>586.392</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0</v>
+        <v>583.629</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0</v>
+        <v>146.04</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0</v>
+        <v>663.877</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0</v>
+        <v>351.095</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.0</v>
+        <v>302.411</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0</v>
+        <v>258.927</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0</v>
+        <v>733.131</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0</v>
+        <v>657.101</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.0</v>
+        <v>429.592</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0</v>
+        <v>259.447</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.0</v>
+        <v>251.0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.0</v>
+        <v>148.237</v>
       </c>
       <c r="AJ49" t="n">
         <v>0.0</v>
@@ -8249,16 +8249,16 @@
         <v>0.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>519.293</v>
+        <v>0.0</v>
       </c>
       <c r="AY49" t="n">
-        <v>751.719</v>
+        <v>0.0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>917.609</v>
+        <v>0.0</v>
       </c>
       <c r="BA49" t="n">
-        <v>2012.381</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -8266,106 +8266,106 @@
         <v>100</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0</v>
+        <v>261.014</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>397.489</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>483.659</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>746.563</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>423.673</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>714.165</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>672.337</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
+        <v>310.995</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>300.111</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0</v>
+        <v>611.215</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0</v>
+        <v>962.329</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0</v>
+        <v>308.841</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0</v>
+        <v>509.426</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0</v>
+        <v>699.715</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0</v>
+        <v>780.774</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0</v>
+        <v>289.942</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0</v>
+        <v>389.78</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0</v>
+        <v>722.413</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0</v>
+        <v>257.471</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0</v>
+        <v>262.451</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0</v>
+        <v>927.467</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0</v>
+        <v>73.96</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0</v>
+        <v>635.92</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0</v>
+        <v>473.064</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0</v>
+        <v>151.574</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.0</v>
+        <v>170.188</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.0</v>
+        <v>688.087</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.0</v>
+        <v>313.587</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.0</v>
+        <v>834.142</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.0</v>
+        <v>536.893</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.0</v>
+        <v>177.997</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.0</v>
+        <v>750.217</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.0</v>
+        <v>590.857</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.0</v>
+        <v>385.206</v>
       </c>
       <c r="AJ50" t="n">
         <v>0.0</v>
@@ -8413,13 +8413,13 @@
         <v>0.0</v>
       </c>
       <c r="AY50" t="n">
-        <v>1008.966</v>
+        <v>0.0</v>
       </c>
       <c r="AZ50" t="n">
-        <v>970.726</v>
+        <v>0.0</v>
       </c>
       <c r="BA50" t="n">
-        <v>2328.779</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -8427,106 +8427,106 @@
         <v>101</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0</v>
+        <v>1043.38</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>676.32</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>645.917</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>381.206</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>720.298</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0</v>
+        <v>432.718</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0</v>
+        <v>1043.081</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0</v>
+        <v>1169.293</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>930.748</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0</v>
+        <v>487.063</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0</v>
+        <v>146.664</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0</v>
+        <v>893.167</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0</v>
+        <v>517.729</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0</v>
+        <v>336.817</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0</v>
+        <v>1144.276</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0</v>
+        <v>739.273</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0</v>
+        <v>1262.366</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0</v>
+        <v>298.631</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0</v>
+        <v>754.463</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0</v>
+        <v>1138.793</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0</v>
+        <v>314.721</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0</v>
+        <v>1077.632</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0</v>
+        <v>376.477</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.0</v>
+        <v>895.217</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0</v>
+        <v>1155.118</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0</v>
+        <v>1057.525</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0</v>
+        <v>1051.589</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0</v>
+        <v>702.981</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.0</v>
+        <v>180.418</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.0</v>
+        <v>573.468</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0</v>
+        <v>1136.023</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.0</v>
+        <v>1008.625</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.0</v>
+        <v>1000.178</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.0</v>
+        <v>854.668</v>
       </c>
       <c r="AJ51" t="n">
         <v>0.0</v>
@@ -8577,10 +8577,10 @@
         <v>0.0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>385.164</v>
+        <v>0.0</v>
       </c>
       <c r="BA51" t="n">
-        <v>1716.358</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -8588,106 +8588,106 @@
         <v>102</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0</v>
+        <v>1016.333</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>644.284</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>581.57</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0</v>
+        <v>289.652</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>771.431</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0</v>
+        <v>691.649</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0</v>
+        <v>978.734</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0</v>
+        <v>1076.477</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0</v>
+        <v>903.825</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0</v>
+        <v>745.993</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0</v>
+        <v>506.849</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0</v>
+        <v>800.351</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0</v>
+        <v>503.84</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0</v>
+        <v>435.151</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0</v>
+        <v>1254.448</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0</v>
+        <v>701.033</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0</v>
+        <v>1169.551</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0</v>
+        <v>249.681</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0</v>
+        <v>716.223</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0</v>
+        <v>1111.746</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0</v>
+        <v>573.652</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0</v>
+        <v>1039.392</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0</v>
+        <v>338.237</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0</v>
+        <v>1005.389</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0</v>
+        <v>1039.801</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0</v>
+        <v>983.818</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.0</v>
+        <v>1161.761</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0</v>
+        <v>664.741</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.0</v>
+        <v>272.661</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0</v>
+        <v>509.121</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.0</v>
+        <v>1046.585</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0</v>
+        <v>1162.231</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.0</v>
+        <v>1110.35</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.0</v>
+        <v>923.119</v>
       </c>
       <c r="AJ52" t="n">
         <v>0.0</v>
@@ -8741,7 +8741,7 @@
         <v>0.0</v>
       </c>
       <c r="BA52" t="n">
-        <v>1969.758</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -8749,106 +8749,106 @@
         <v>103</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0</v>
+        <v>2304.042</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>1996.22</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>2092.849</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0</v>
+        <v>1910.072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>1980.96</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0</v>
+        <v>1693.38</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0</v>
+        <v>2479.476</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0</v>
+        <v>2489.192</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>2191.41</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0</v>
+        <v>1747.725</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0</v>
+        <v>1611.342</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0</v>
+        <v>2213.066</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0</v>
+        <v>1820.652</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0</v>
+        <v>1639.74</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0</v>
+        <v>2355.049</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0</v>
+        <v>2059.173</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0</v>
+        <v>2582.266</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0</v>
+        <v>1745.562</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0</v>
+        <v>2074.276</v>
       </c>
       <c r="U53" t="n">
-        <v>0.0</v>
+        <v>2399.455</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0</v>
+        <v>1406.779</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0</v>
+        <v>2397.445</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0</v>
+        <v>1736.02</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0</v>
+        <v>2155.879</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0</v>
+        <v>2474.93</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0</v>
+        <v>2318.188</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0</v>
+        <v>2312.251</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0</v>
+        <v>2017.153</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.0</v>
+        <v>1703.179</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.0</v>
+        <v>2020.4</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.0</v>
+        <v>2396.685</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.0</v>
+        <v>2269.116</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.0</v>
+        <v>2260.84</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.0</v>
+        <v>2115.33</v>
       </c>
       <c r="AJ53" t="n">
         <v>0.0</v>

--- a/Jon/DistanciasCuidades.xlsx
+++ b/Jon/DistanciasCuidades.xlsx
@@ -655,7 +655,7 @@
         <v>311.953</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0</v>
+        <v>820.189</v>
       </c>
       <c r="AP2" t="n">
         <v>180.485</v>
@@ -667,7 +667,7 @@
         <v>431.383</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0</v>
+        <v>428.317</v>
       </c>
       <c r="AT2" t="n">
         <v>569.323</v>
@@ -816,7 +816,7 @@
         <v>350.664</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0</v>
+        <v>502.093</v>
       </c>
       <c r="AP3" t="n">
         <v>449.085</v>
@@ -828,7 +828,7 @@
         <v>226.379</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0</v>
+        <v>247.223</v>
       </c>
       <c r="AT3" t="n">
         <v>187.209</v>
@@ -977,7 +977,7 @@
         <v>516.491</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0</v>
+        <v>596.589</v>
       </c>
       <c r="AP4" t="n">
         <v>554.238</v>
@@ -989,7 +989,7 @@
         <v>318.979</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0</v>
+        <v>413.05</v>
       </c>
       <c r="AT4" t="n">
         <v>165.445</v>
@@ -1138,7 +1138,7 @@
         <v>640.413</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0</v>
+        <v>413.813</v>
       </c>
       <c r="AP5" t="n">
         <v>768.785</v>
@@ -1150,7 +1150,7 @@
         <v>581.883</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0</v>
+        <v>499.181</v>
       </c>
       <c r="AT5" t="n">
         <v>428.349</v>
@@ -1299,7 +1299,7 @@
         <v>65.893</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0</v>
+        <v>497.107</v>
       </c>
       <c r="AP6" t="n">
         <v>253.268</v>
@@ -1311,7 +1311,7 @@
         <v>411.871</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0</v>
+        <v>131.963</v>
       </c>
       <c r="AT6" t="n">
         <v>465.307</v>
@@ -1460,7 +1460,7 @@
         <v>390.449</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0</v>
+        <v>209.527</v>
       </c>
       <c r="AP7" t="n">
         <v>628.031</v>
@@ -1472,7 +1472,7 @@
         <v>702.363</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0</v>
+        <v>363.8</v>
       </c>
       <c r="AT7" t="n">
         <v>656.737</v>
@@ -1621,7 +1621,7 @@
         <v>789.351</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>985.349</v>
       </c>
       <c r="AP8" t="n">
         <v>742.917</v>
@@ -1633,7 +1633,7 @@
         <v>507.657</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>709.926</v>
       </c>
       <c r="AT8" t="n">
         <v>354.144</v>
@@ -1782,7 +1782,7 @@
         <v>712.533</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0</v>
+        <v>995.065</v>
       </c>
       <c r="AP9" t="n">
         <v>465.284</v>
@@ -1794,7 +1794,7 @@
         <v>426.684</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0</v>
+        <v>690.641</v>
       </c>
       <c r="AT9" t="n">
         <v>349.309</v>
@@ -1943,7 +1943,7 @@
         <v>199.445</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0</v>
+        <v>707.556</v>
       </c>
       <c r="AP10" t="n">
         <v>141.995</v>
@@ -1955,7 +1955,7 @@
         <v>378.006</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0</v>
+        <v>315.809</v>
       </c>
       <c r="AT10" t="n">
         <v>588.435</v>
@@ -2104,7 +2104,7 @@
         <v>299.922</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0</v>
+        <v>263.871</v>
       </c>
       <c r="AP11" t="n">
         <v>525.081</v>
@@ -2116,7 +2116,7 @@
         <v>599.413</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0</v>
+        <v>260.85</v>
       </c>
       <c r="AT11" t="n">
         <v>629.183</v>
@@ -2265,7 +2265,7 @@
         <v>678.261</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0</v>
+        <v>126.73</v>
       </c>
       <c r="AP12" t="n">
         <v>876.195</v>
@@ -2277,7 +2277,7 @@
         <v>782.826</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0</v>
+        <v>611.964</v>
       </c>
       <c r="AT12" t="n">
         <v>773.526</v>
@@ -2426,7 +2426,7 @@
         <v>512.878</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0</v>
+        <v>718.939</v>
       </c>
       <c r="AP13" t="n">
         <v>379.421</v>
@@ -2438,7 +2438,7 @@
         <v>144.161</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>433.453</v>
       </c>
       <c r="AT13" t="n">
         <v>73.183</v>
@@ -2587,7 +2587,7 @@
         <v>294.92</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0</v>
+        <v>326.525</v>
       </c>
       <c r="AP14" t="n">
         <v>423.292</v>
@@ -2599,7 +2599,7 @@
         <v>360.861</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0</v>
+        <v>118.854</v>
       </c>
       <c r="AT14" t="n">
         <v>351.562</v>
@@ -2748,7 +2748,7 @@
         <v>485.209</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0</v>
+        <v>145.613</v>
       </c>
       <c r="AP15" t="n">
         <v>613.581</v>
@@ -2760,7 +2760,7 @@
         <v>529.872</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0</v>
+        <v>343.977</v>
       </c>
       <c r="AT15" t="n">
         <v>520.572</v>
@@ -2909,7 +2909,7 @@
         <v>526.822</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0</v>
+        <v>921.085</v>
       </c>
       <c r="AP16" t="n">
         <v>618.483</v>
@@ -2921,7 +2921,7 @@
         <v>894.888</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.0</v>
+        <v>658.104</v>
       </c>
       <c r="AT16" t="n">
         <v>948.324</v>
@@ -3070,7 +3070,7 @@
         <v>259.84</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0</v>
+        <v>565.046</v>
       </c>
       <c r="AP17" t="n">
         <v>270.563</v>
@@ -3082,7 +3082,7 @@
         <v>148.444</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0</v>
+        <v>180.415</v>
       </c>
       <c r="AT17" t="n">
         <v>200.819</v>
@@ -3231,7 +3231,7 @@
         <v>791.318</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0</v>
+        <v>1088.139</v>
       </c>
       <c r="AP18" t="n">
         <v>544.068</v>
@@ -3243,7 +3243,7 @@
         <v>519.757</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.0</v>
+        <v>769.426</v>
       </c>
       <c r="AT18" t="n">
         <v>442.383</v>
@@ -3392,7 +3392,7 @@
         <v>507.907</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0</v>
+        <v>249.303</v>
       </c>
       <c r="AP19" t="n">
         <v>636.278</v>
@@ -3404,7 +3404,7 @@
         <v>552.569</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0</v>
+        <v>366.675</v>
       </c>
       <c r="AT19" t="n">
         <v>488.051</v>
@@ -3553,7 +3553,7 @@
         <v>150.811</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0</v>
+        <v>590.422</v>
       </c>
       <c r="AP20" t="n">
         <v>171.337</v>
@@ -3565,7 +3565,7 @@
         <v>245.669</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0</v>
+        <v>130.566</v>
       </c>
       <c r="AT20" t="n">
         <v>332.182</v>
@@ -3714,7 +3714,7 @@
         <v>407.366</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0</v>
+        <v>915.602</v>
       </c>
       <c r="AP21" t="n">
         <v>263.08</v>
@@ -3726,7 +3726,7 @@
         <v>432.819</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.0</v>
+        <v>523.73</v>
       </c>
       <c r="AT21" t="n">
         <v>570.76</v>
@@ -3875,7 +3875,7 @@
         <v>643.399</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.0</v>
+        <v>93.02</v>
       </c>
       <c r="AP22" t="n">
         <v>841.333</v>
@@ -3887,7 +3887,7 @@
         <v>758.004</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.0</v>
+        <v>577.102</v>
       </c>
       <c r="AT22" t="n">
         <v>748.704</v>
@@ -4036,7 +4036,7 @@
         <v>475.627</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.0</v>
+        <v>913.591</v>
       </c>
       <c r="AP23" t="n">
         <v>228.377</v>
@@ -4048,7 +4048,7 @@
         <v>248.958</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.0</v>
+        <v>453.735</v>
       </c>
       <c r="AT23" t="n">
         <v>386.899</v>
@@ -4197,7 +4197,7 @@
         <v>421.414</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.0</v>
+        <v>241.893</v>
       </c>
       <c r="AP24" t="n">
         <v>549.786</v>
@@ -4209,7 +4209,7 @@
         <v>466.077</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.0</v>
+        <v>280.182</v>
       </c>
       <c r="AT24" t="n">
         <v>456.777</v>
@@ -4358,7 +4358,7 @@
         <v>277.763</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.0</v>
+        <v>672.026</v>
       </c>
       <c r="AP25" t="n">
         <v>310.772</v>
@@ -4370,7 +4370,7 @@
         <v>546.783</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.0</v>
+        <v>409.045</v>
       </c>
       <c r="AT25" t="n">
         <v>699.265</v>
@@ -4519,7 +4519,7 @@
         <v>553.112</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.0</v>
+        <v>991.077</v>
       </c>
       <c r="AP26" t="n">
         <v>305.863</v>
@@ -4531,7 +4531,7 @@
         <v>322.741</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.0</v>
+        <v>531.22</v>
       </c>
       <c r="AT26" t="n">
         <v>312.633</v>
@@ -4680,7 +4680,7 @@
         <v>326.098</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.0</v>
+        <v>834.334</v>
       </c>
       <c r="AP27" t="n">
         <v>100.931</v>
@@ -4692,7 +4692,7 @@
         <v>340.557</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.0</v>
+        <v>398.16</v>
       </c>
       <c r="AT27" t="n">
         <v>478.497</v>
@@ -4841,7 +4841,7 @@
         <v>434.135</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.0</v>
+        <v>828.397</v>
       </c>
       <c r="AP28" t="n">
         <v>525.795</v>
@@ -4853,7 +4853,7 @@
         <v>802.201</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.0</v>
+        <v>565.417</v>
       </c>
       <c r="AT28" t="n">
         <v>855.637</v>
@@ -5002,7 +5002,7 @@
         <v>96.711</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.0</v>
+        <v>533.3</v>
       </c>
       <c r="AP29" t="n">
         <v>227.453</v>
@@ -5014,7 +5014,7 @@
         <v>301.785</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0</v>
+        <v>72.83</v>
       </c>
       <c r="AT29" t="n">
         <v>357.309</v>
@@ -5163,7 +5163,7 @@
         <v>619.636</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.0</v>
+        <v>206.92</v>
       </c>
       <c r="AP30" t="n">
         <v>748.008</v>
@@ -5175,7 +5175,7 @@
         <v>664.299</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.0</v>
+        <v>478.404</v>
       </c>
       <c r="AT30" t="n">
         <v>610.242</v>
@@ -5324,7 +5324,7 @@
         <v>494.886</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.0</v>
+        <v>524.14</v>
       </c>
       <c r="AP31" t="n">
         <v>593.307</v>
@@ -5336,7 +5336,7 @@
         <v>372.212</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.0</v>
+        <v>391.445</v>
       </c>
       <c r="AT31" t="n">
         <v>218.678</v>
@@ -5485,7 +5485,7 @@
         <v>404.595</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.0</v>
+        <v>912.831</v>
       </c>
       <c r="AP32" t="n">
         <v>178.626</v>
@@ -5497,7 +5497,7 @@
         <v>348.365</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.0</v>
+        <v>460.927</v>
       </c>
       <c r="AT32" t="n">
         <v>486.306</v>
@@ -5646,7 +5646,7 @@
         <v>434.605</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0</v>
+        <v>785.433</v>
       </c>
       <c r="AP33" t="n">
         <v>549.512</v>
@@ -5658,7 +5658,7 @@
         <v>802.671</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.0</v>
+        <v>565.887</v>
       </c>
       <c r="AT33" t="n">
         <v>856.107</v>
@@ -5807,7 +5807,7 @@
         <v>382.724</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.0</v>
+        <v>776.986</v>
       </c>
       <c r="AP34" t="n">
         <v>428.566</v>
@@ -5819,7 +5819,7 @@
         <v>664.577</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.0</v>
+        <v>514.006</v>
       </c>
       <c r="AT34" t="n">
         <v>804.226</v>
@@ -5968,7 +5968,7 @@
         <v>164.681</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.0</v>
+        <v>631.477</v>
       </c>
       <c r="AP35" t="n">
         <v>204.392</v>
@@ -5980,7 +5980,7 @@
         <v>419.078</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.0</v>
+        <v>326.775</v>
       </c>
       <c r="AT35" t="n">
         <v>590.701</v>
@@ -6120,52 +6120,52 @@
         <v>2135.359</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.0</v>
+        <v>1859.96</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.0</v>
+        <v>2225.647</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.0</v>
+        <v>1958.597</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.0</v>
+        <v>1408.218</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.0</v>
+        <v>2156.531</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.0</v>
+        <v>2313.2</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.0</v>
+        <v>2073.202</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.0</v>
+        <v>1892.3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.0</v>
+        <v>2063.902</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.0</v>
+        <v>1981.718</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.0</v>
+        <v>2259.097</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.0</v>
+        <v>1927.052</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.0</v>
+        <v>2242.665</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.0</v>
+        <v>1629.919</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.0</v>
+        <v>1888.85</v>
       </c>
       <c r="BA36" t="n">
-        <v>0.0</v>
+        <v>177.246</v>
       </c>
     </row>
     <row r="37">
@@ -6281,52 +6281,52 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.0</v>
+        <v>438.722</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.0</v>
+        <v>550.401</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.0</v>
+        <v>549.355</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.0</v>
+        <v>744.316</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.0</v>
+        <v>664.262</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.0</v>
+        <v>1095.611</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.0</v>
+        <v>917.421</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.0</v>
+        <v>680.637</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.0</v>
+        <v>970.857</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.0</v>
+        <v>460.395</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.0</v>
+        <v>641.173</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.0</v>
+        <v>374.197</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.0</v>
+        <v>864.967</v>
       </c>
       <c r="AY37" t="n">
-        <v>0.0</v>
+        <v>967.508</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.0</v>
+        <v>1276.981</v>
       </c>
       <c r="BA37" t="n">
-        <v>0.0</v>
+        <v>2225.631</v>
       </c>
     </row>
     <row r="38">
@@ -6436,58 +6436,58 @@
         <v>167.969</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.0</v>
+        <v>1859.96</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.0</v>
+        <v>438.722</v>
       </c>
       <c r="AL38" t="n">
         <v>0.0</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.0</v>
+        <v>363.436</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.0</v>
+        <v>171.554</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.0</v>
+        <v>460.908</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.0</v>
+        <v>323.374</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.0</v>
+        <v>768.421</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.0</v>
+        <v>517.532</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.0</v>
+        <v>237.24</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.0</v>
+        <v>570.968</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.0</v>
+        <v>119.506</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.0</v>
+        <v>396.885</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.0</v>
+        <v>66.103</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.0</v>
+        <v>537.777</v>
       </c>
       <c r="AY38" t="n">
-        <v>0.0</v>
+        <v>684.1</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.0</v>
+        <v>877.092</v>
       </c>
       <c r="BA38" t="n">
-        <v>0.0</v>
+        <v>1944.762</v>
       </c>
     </row>
     <row r="39">
@@ -6597,58 +6597,58 @@
         <v>200.602</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.0</v>
+        <v>2225.647</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.0</v>
+        <v>550.401</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.0</v>
+        <v>363.436</v>
       </c>
       <c r="AM39" t="n">
         <v>0.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.0</v>
+        <v>360.97</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.0</v>
+        <v>827.766</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.0</v>
+        <v>320.87</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.0</v>
+        <v>632.042</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.0</v>
+        <v>571.767</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.0</v>
+        <v>523.065</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.0</v>
+        <v>709.707</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.0</v>
+        <v>247.069</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0</v>
+        <v>102.4</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.0</v>
+        <v>344.527</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.0</v>
+        <v>401.398</v>
       </c>
       <c r="AY39" t="n">
-        <v>0.0</v>
+        <v>1050.957</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.0</v>
+        <v>1119.409</v>
       </c>
       <c r="BA39" t="n">
-        <v>0.0</v>
+        <v>2311.62</v>
       </c>
     </row>
     <row r="40">
@@ -6758,58 +6758,58 @@
         <v>164.681</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.0</v>
+        <v>1958.597</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.0</v>
+        <v>549.355</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.0</v>
+        <v>171.554</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.0</v>
+        <v>360.97</v>
       </c>
       <c r="AN40" t="n">
         <v>0.0</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.0</v>
+        <v>558.007</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.0</v>
+        <v>191.809</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.0</v>
+        <v>637.618</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.0</v>
+        <v>394.752</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.0</v>
+        <v>157.968</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.0</v>
+        <v>448.188</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.0</v>
+        <v>115.589</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.0</v>
+        <v>355.969</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.0</v>
+        <v>189.195</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.0</v>
+        <v>406.554</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.0</v>
+        <v>792.552</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.0</v>
+        <v>754.312</v>
       </c>
       <c r="BA40" t="n">
-        <v>0.0</v>
+        <v>2041.861</v>
       </c>
     </row>
     <row r="41">
@@ -6817,160 +6817,160 @@
         <v>91</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0</v>
+        <v>820.189</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>502.093</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>596.589</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>413.813</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>497.107</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>209.527</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>985.349</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>995.065</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>707.556</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0</v>
+        <v>263.871</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>126.73</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0</v>
+        <v>718.939</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>326.525</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>145.613</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0</v>
+        <v>921.085</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0</v>
+        <v>565.046</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0</v>
+        <v>1088.139</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0</v>
+        <v>249.303</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0</v>
+        <v>590.422</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0</v>
+        <v>915.602</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0</v>
+        <v>93.02</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0</v>
+        <v>913.591</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0</v>
+        <v>241.893</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0</v>
+        <v>672.026</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0</v>
+        <v>991.077</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0</v>
+        <v>834.334</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0</v>
+        <v>828.397</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0</v>
+        <v>533.3</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0</v>
+        <v>206.92</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0</v>
+        <v>524.14</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.0</v>
+        <v>912.831</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0</v>
+        <v>785.433</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.0</v>
+        <v>776.986</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.0</v>
+        <v>631.477</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.0</v>
+        <v>1408.218</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.0</v>
+        <v>744.316</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.0</v>
+        <v>460.908</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.0</v>
+        <v>827.766</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.0</v>
+        <v>558.007</v>
       </c>
       <c r="AO41" t="n">
         <v>0.0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.0</v>
+        <v>757.109</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.0</v>
+        <v>905.606</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.0</v>
+        <v>665.607</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.0</v>
+        <v>492.878</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.0</v>
+        <v>656.307</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.0</v>
+        <v>582.296</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0</v>
+        <v>859.675</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.0</v>
+        <v>527.63</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.0</v>
+        <v>843.243</v>
       </c>
       <c r="AY41" t="n">
-        <v>0.0</v>
+        <v>235.882</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.0</v>
+        <v>482.658</v>
       </c>
       <c r="BA41" t="n">
-        <v>0.0</v>
+        <v>1497.903</v>
       </c>
     </row>
     <row r="42">
@@ -7080,58 +7080,58 @@
         <v>204.392</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.0</v>
+        <v>2156.531</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.0</v>
+        <v>664.262</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.0</v>
+        <v>323.374</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.0</v>
+        <v>320.87</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.0</v>
+        <v>191.809</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.0</v>
+        <v>757.109</v>
       </c>
       <c r="AP42" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.0</v>
+        <v>389.546</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.0</v>
+        <v>238.69</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.0</v>
+        <v>300.328</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.0</v>
+        <v>376.631</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.0</v>
+        <v>207.429</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.0</v>
+        <v>229.451</v>
       </c>
       <c r="AW42" t="n">
-        <v>0.0</v>
+        <v>304.825</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.0</v>
+        <v>158.902</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.0</v>
+        <v>924.226</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.0</v>
+        <v>885.986</v>
       </c>
       <c r="BA42" t="n">
-        <v>0.0</v>
+        <v>2244.038</v>
       </c>
     </row>
     <row r="43">
@@ -7241,58 +7241,58 @@
         <v>615.85</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.0</v>
+        <v>2313.2</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.0</v>
+        <v>1095.611</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.0</v>
+        <v>768.421</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.0</v>
+        <v>632.042</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.0</v>
+        <v>637.618</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.0</v>
+        <v>905.606</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.0</v>
+        <v>389.546</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.0</v>
+        <v>335.968</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.0</v>
+        <v>618.863</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.0</v>
+        <v>258.593</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.0</v>
+        <v>650.855</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.0</v>
+        <v>533.3</v>
       </c>
       <c r="AW43" t="n">
-        <v>0.0</v>
+        <v>748.312</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.0</v>
+        <v>236.009</v>
       </c>
       <c r="AY43" t="n">
-        <v>0.0</v>
+        <v>1078.577</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.0</v>
+        <v>985.762</v>
       </c>
       <c r="BA43" t="n">
-        <v>0.0</v>
+        <v>2398.477</v>
       </c>
     </row>
     <row r="44">
@@ -7402,58 +7402,58 @@
         <v>419.078</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.0</v>
+        <v>2073.202</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.0</v>
+        <v>917.421</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.0</v>
+        <v>517.532</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.0</v>
+        <v>571.767</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.0</v>
+        <v>394.752</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.0</v>
+        <v>665.607</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.0</v>
+        <v>238.69</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.0</v>
+        <v>335.968</v>
       </c>
       <c r="AR44" t="n">
         <v>0.0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.0</v>
+        <v>326.412</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.0</v>
+        <v>144.004</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.0</v>
+        <v>421.882</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.0</v>
+        <v>474.026</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.0</v>
+        <v>557.777</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.0</v>
+        <v>171.141</v>
       </c>
       <c r="AY44" t="n">
-        <v>0.0</v>
+        <v>839.449</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.0</v>
+        <v>801.209</v>
       </c>
       <c r="BA44" t="n">
-        <v>0.0</v>
+        <v>2159.349</v>
       </c>
     </row>
     <row r="45">
@@ -7461,160 +7461,160 @@
         <v>95</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0</v>
+        <v>428.317</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>247.223</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>413.05</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0</v>
+        <v>499.181</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>131.963</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>363.8</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>709.926</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0</v>
+        <v>690.641</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>315.809</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0</v>
+        <v>260.85</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0</v>
+        <v>611.964</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0</v>
+        <v>433.453</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0</v>
+        <v>118.854</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0</v>
+        <v>343.977</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0</v>
+        <v>658.104</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0</v>
+        <v>180.415</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0</v>
+        <v>769.426</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0</v>
+        <v>366.675</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0</v>
+        <v>130.566</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0</v>
+        <v>523.73</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0</v>
+        <v>577.102</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0</v>
+        <v>453.735</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0</v>
+        <v>280.182</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0</v>
+        <v>409.045</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0</v>
+        <v>531.22</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0</v>
+        <v>398.16</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0</v>
+        <v>565.417</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0</v>
+        <v>72.83</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.0</v>
+        <v>478.404</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.0</v>
+        <v>391.445</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.0</v>
+        <v>460.927</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0</v>
+        <v>565.887</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.0</v>
+        <v>514.006</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.0</v>
+        <v>326.775</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.0</v>
+        <v>1892.3</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.0</v>
+        <v>680.637</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.0</v>
+        <v>237.24</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.0</v>
+        <v>523.065</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.0</v>
+        <v>157.968</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.0</v>
+        <v>492.878</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.0</v>
+        <v>300.328</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.0</v>
+        <v>618.863</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.0</v>
+        <v>326.412</v>
       </c>
       <c r="AS45" t="n">
         <v>0.0</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.0</v>
+        <v>369.634</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.0</v>
+        <v>257.478</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.0</v>
+        <v>468.944</v>
       </c>
       <c r="AW45" t="n">
-        <v>0.0</v>
+        <v>320.861</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.0</v>
+        <v>383.525</v>
       </c>
       <c r="AY45" t="n">
-        <v>0.0</v>
+        <v>651.147</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0.0</v>
+        <v>612.907</v>
       </c>
       <c r="BA45" t="n">
-        <v>0.0</v>
+        <v>1977.772</v>
       </c>
     </row>
     <row r="46">
@@ -7724,58 +7724,58 @@
         <v>590.701</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.0</v>
+        <v>2063.902</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.0</v>
+        <v>970.857</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.0</v>
+        <v>570.968</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.0</v>
+        <v>709.707</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.0</v>
+        <v>448.188</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.0</v>
+        <v>656.307</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.0</v>
+        <v>376.631</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.0</v>
+        <v>258.593</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.0</v>
+        <v>144.004</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.0</v>
+        <v>369.634</v>
       </c>
       <c r="AT46" t="n">
         <v>0.0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.0</v>
+        <v>547.76</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.0</v>
+        <v>612.032</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.0</v>
+        <v>611.143</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.0</v>
+        <v>309.147</v>
       </c>
       <c r="AY46" t="n">
-        <v>0.0</v>
+        <v>782.714</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.0</v>
+        <v>718.367</v>
       </c>
       <c r="BA46" t="n">
-        <v>0.0</v>
+        <v>2149.115</v>
       </c>
     </row>
     <row r="47">
@@ -7885,58 +7885,58 @@
         <v>50.78</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.0</v>
+        <v>1981.718</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.0</v>
+        <v>460.395</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.0</v>
+        <v>119.506</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.0</v>
+        <v>247.069</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.0</v>
+        <v>115.589</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.0</v>
+        <v>582.296</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.0</v>
+        <v>207.429</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.0</v>
+        <v>650.855</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.0</v>
+        <v>421.882</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.0</v>
+        <v>257.478</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.0</v>
+        <v>547.76</v>
       </c>
       <c r="AU47" t="n">
         <v>0.0</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.0</v>
+        <v>280.561</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.0</v>
+        <v>100.4</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.0</v>
+        <v>421.453</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.0</v>
+        <v>806.831</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.0</v>
+        <v>853.299</v>
       </c>
       <c r="BA47" t="n">
-        <v>0.0</v>
+        <v>2067.493</v>
       </c>
     </row>
     <row r="48">
@@ -8046,58 +8046,58 @@
         <v>244.314</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.0</v>
+        <v>2259.097</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.0</v>
+        <v>641.173</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.0</v>
+        <v>396.885</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.0</v>
+        <v>102.4</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.0</v>
+        <v>355.969</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.0</v>
+        <v>859.675</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.0</v>
+        <v>229.451</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.0</v>
+        <v>533.3</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.0</v>
+        <v>474.026</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.0</v>
+        <v>468.944</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.0</v>
+        <v>612.032</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.0</v>
+        <v>280.561</v>
       </c>
       <c r="AV48" t="n">
         <v>0.0</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.0</v>
+        <v>376.838</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.0</v>
+        <v>302.384</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.0</v>
+        <v>1083.268</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.0</v>
+        <v>1056.222</v>
       </c>
       <c r="BA48" t="n">
-        <v>0.0</v>
+        <v>2343.931</v>
       </c>
     </row>
     <row r="49">
@@ -8207,58 +8207,58 @@
         <v>148.237</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.0</v>
+        <v>1927.052</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.0</v>
+        <v>374.197</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.0</v>
+        <v>66.103</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.0</v>
+        <v>344.527</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.0</v>
+        <v>189.195</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.0</v>
+        <v>527.63</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.0</v>
+        <v>304.825</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.0</v>
+        <v>748.312</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.0</v>
+        <v>557.777</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.0</v>
+        <v>320.861</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.0</v>
+        <v>611.143</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.0</v>
+        <v>100.4</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.0</v>
+        <v>376.838</v>
       </c>
       <c r="AW49" t="n">
         <v>0.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.0</v>
+        <v>519.293</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.0</v>
+        <v>751.719</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.0</v>
+        <v>917.609</v>
       </c>
       <c r="BA49" t="n">
-        <v>0.0</v>
+        <v>2012.381</v>
       </c>
     </row>
     <row r="50">
@@ -8368,58 +8368,58 @@
         <v>385.206</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.0</v>
+        <v>2242.665</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.0</v>
+        <v>864.967</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.0</v>
+        <v>537.777</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.0</v>
+        <v>401.398</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.0</v>
+        <v>406.554</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.0</v>
+        <v>843.243</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.0</v>
+        <v>158.902</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.0</v>
+        <v>236.009</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.0</v>
+        <v>171.141</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.0</v>
+        <v>383.525</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.0</v>
+        <v>309.147</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.0</v>
+        <v>421.453</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.0</v>
+        <v>302.384</v>
       </c>
       <c r="AW50" t="n">
-        <v>0.0</v>
+        <v>519.293</v>
       </c>
       <c r="AX50" t="n">
         <v>0.0</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.0</v>
+        <v>1008.966</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.0</v>
+        <v>970.726</v>
       </c>
       <c r="BA50" t="n">
-        <v>0.0</v>
+        <v>2328.779</v>
       </c>
     </row>
     <row r="51">
@@ -8529,58 +8529,58 @@
         <v>854.668</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.0</v>
+        <v>1629.919</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.0</v>
+        <v>967.508</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.0</v>
+        <v>684.1</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.0</v>
+        <v>1050.957</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.0</v>
+        <v>792.552</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.0</v>
+        <v>235.882</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.0</v>
+        <v>924.226</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.0</v>
+        <v>1078.577</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.0</v>
+        <v>839.449</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.0</v>
+        <v>651.147</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.0</v>
+        <v>782.714</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.0</v>
+        <v>806.831</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.0</v>
+        <v>1083.268</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.0</v>
+        <v>751.719</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.0</v>
+        <v>1008.966</v>
       </c>
       <c r="AY51" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.0</v>
+        <v>385.164</v>
       </c>
       <c r="BA51" t="n">
-        <v>0.0</v>
+        <v>1716.358</v>
       </c>
     </row>
     <row r="52">
@@ -8690,58 +8690,58 @@
         <v>923.119</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.0</v>
+        <v>1888.85</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.0</v>
+        <v>1276.981</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.0</v>
+        <v>877.092</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.0</v>
+        <v>1119.409</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.0</v>
+        <v>754.312</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.0</v>
+        <v>482.658</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.0</v>
+        <v>885.986</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.0</v>
+        <v>985.762</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.0</v>
+        <v>801.209</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.0</v>
+        <v>612.907</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.0</v>
+        <v>718.367</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.0</v>
+        <v>853.299</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.0</v>
+        <v>1056.222</v>
       </c>
       <c r="AW52" t="n">
-        <v>0.0</v>
+        <v>917.609</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.0</v>
+        <v>970.726</v>
       </c>
       <c r="AY52" t="n">
-        <v>0.0</v>
+        <v>385.164</v>
       </c>
       <c r="AZ52" t="n">
         <v>0.0</v>
       </c>
       <c r="BA52" t="n">
-        <v>0.0</v>
+        <v>1969.758</v>
       </c>
     </row>
     <row r="53">
@@ -8851,55 +8851,55 @@
         <v>2115.33</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.0</v>
+        <v>177.246</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.0</v>
+        <v>2225.631</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.0</v>
+        <v>1944.762</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.0</v>
+        <v>2311.62</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.0</v>
+        <v>2041.861</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.0</v>
+        <v>1497.903</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.0</v>
+        <v>2244.038</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.0</v>
+        <v>2398.477</v>
       </c>
       <c r="AR53" t="n">
-        <v>0.0</v>
+        <v>2159.349</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.0</v>
+        <v>1977.772</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.0</v>
+        <v>2149.115</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.0</v>
+        <v>2067.493</v>
       </c>
       <c r="AV53" t="n">
-        <v>0.0</v>
+        <v>2343.931</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.0</v>
+        <v>2012.381</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.0</v>
+        <v>2328.779</v>
       </c>
       <c r="AY53" t="n">
-        <v>0.0</v>
+        <v>1716.358</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0.0</v>
+        <v>1969.758</v>
       </c>
       <c r="BA53" t="n">
         <v>0.0</v>
